--- a/W&O POS_Hardcopy.xlsx
+++ b/W&O POS_Hardcopy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="2" r:id="rId1"/>
@@ -121,15 +121,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>13608</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>204107</xdr:colOff>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -153,7 +153,51 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
+          <a:off x="625929" y="190500"/>
+          <a:ext cx="6313714" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>40823</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>204109</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>166007</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7388680" y="204107"/>
           <a:ext cx="6286500" cy="10058400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1311,7 +1355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1326,9 +1370,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1339,7 +1388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
@@ -1391,7 +1440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="Z56" sqref="Z56"/>
     </sheetView>
   </sheetViews>

--- a/W&O POS_Hardcopy.xlsx
+++ b/W&O POS_Hardcopy.xlsx
@@ -18,8 +18,79 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>MST_USER</t>
+  </si>
+  <si>
+    <t>USER_ID</t>
+  </si>
+  <si>
+    <t>USER_NAME</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>ACTIVE</t>
+  </si>
+  <si>
+    <t>MST_TABLE</t>
+  </si>
+  <si>
+    <t>TABLE_ID</t>
+  </si>
+  <si>
+    <t>TABLE_NAME</t>
+  </si>
+  <si>
+    <t>NUM_OF_CUST</t>
+  </si>
+  <si>
+    <t>RESERVED</t>
+  </si>
+  <si>
+    <t>Số lượng khách có thể chứa của bàn này</t>
+  </si>
+  <si>
+    <t>Đang ở trạng thái nào? Có available hay không?</t>
+  </si>
+  <si>
+    <t>User có đang được active không?</t>
+  </si>
+  <si>
+    <t>TABLE_STATUS</t>
+  </si>
+  <si>
+    <t>STATUS_ID</t>
+  </si>
+  <si>
+    <t>COMPLETED</t>
+  </si>
+  <si>
+    <t>Đã kết thúc trạng thái của Table chưa?</t>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+  </si>
+  <si>
+    <t>Ngày giờ đặt bàn</t>
+  </si>
+  <si>
+    <t>START_DATE</t>
+  </si>
+  <si>
+    <t>Ngày giờ cập nhật đặt bàn</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -165,20 +236,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>40823</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>204109</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>166007</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>163285</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -197,7 +268,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7388680" y="204107"/>
+          <a:off x="312964" y="10477500"/>
           <a:ext cx="6286500" cy="10058400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1353,14 +1424,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="AC1:AD5"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="29" max="30" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="46" width="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="29:30" x14ac:dyDescent="0.25">
+      <c r="AC1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="29:30" x14ac:dyDescent="0.25">
+      <c r="AC2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="29:30" x14ac:dyDescent="0.25">
+      <c r="AC3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="29:30" x14ac:dyDescent="0.25">
+      <c r="AC4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="29:30" x14ac:dyDescent="0.25">
+      <c r="AC5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1368,17 +1476,90 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="M1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1388,7 +1569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
@@ -1440,7 +1621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A570" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="Z56" sqref="Z56"/>
     </sheetView>
   </sheetViews>

--- a/W&O POS_Hardcopy.xlsx
+++ b/W&O POS_Hardcopy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>Table</t>
   </si>
@@ -51,15 +51,9 @@
     <t>NUM_OF_CUST</t>
   </si>
   <si>
-    <t>RESERVED</t>
-  </si>
-  <si>
     <t>Số lượng khách có thể chứa của bàn này</t>
   </si>
   <si>
-    <t>Đang ở trạng thái nào? Có available hay không?</t>
-  </si>
-  <si>
     <t>User có đang được active không?</t>
   </si>
   <si>
@@ -69,9 +63,6 @@
     <t>STATUS_ID</t>
   </si>
   <si>
-    <t>COMPLETED</t>
-  </si>
-  <si>
     <t>Đã kết thúc trạng thái của Table chưa?</t>
   </si>
   <si>
@@ -85,6 +76,72 @@
   </si>
   <si>
     <t>Ngày giờ cập nhật đặt bàn</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>COMMON_NO</t>
+  </si>
+  <si>
+    <t>CLASSNO</t>
+  </si>
+  <si>
+    <t>CLASSNAME</t>
+  </si>
+  <si>
+    <t>DATA_1</t>
+  </si>
+  <si>
+    <t>DATA_2</t>
+  </si>
+  <si>
+    <t>DATA_3</t>
+  </si>
+  <si>
+    <t>DATA_4</t>
+  </si>
+  <si>
+    <t>DATA_5</t>
+  </si>
+  <si>
+    <t>DATA_6</t>
+  </si>
+  <si>
+    <t>DATA_FLG</t>
+  </si>
+  <si>
+    <t>INSERT_DATE</t>
+  </si>
+  <si>
+    <t>MST_COMMON</t>
+  </si>
+  <si>
+    <t>Số sinh tự động</t>
+  </si>
+  <si>
+    <t>DATA_NUMBER_1</t>
+  </si>
+  <si>
+    <t>DATA_NUMBER_2</t>
+  </si>
+  <si>
+    <t>DATA_NUMBER_3</t>
+  </si>
+  <si>
+    <t>DATA_NUMBER_4</t>
+  </si>
+  <si>
+    <t>DATA_NUMBER_6</t>
+  </si>
+  <si>
+    <t>DATA_NUMBER_5</t>
+  </si>
+  <si>
+    <t>Có thể lưu ở MST_COMMON</t>
+  </si>
+  <si>
+    <t>FULL_NAME</t>
   </si>
 </sst>
 </file>
@@ -1424,10 +1481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="AC1:AD5"/>
+  <dimension ref="AC1:AE31"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD6" sqref="AD6"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC6" sqref="AC6:AD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1437,7 +1494,7 @@
     <col min="32" max="46" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="29:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="29:31" x14ac:dyDescent="0.25">
       <c r="AC1" t="s">
         <v>0</v>
       </c>
@@ -1445,27 +1502,133 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="29:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="29:31" x14ac:dyDescent="0.25">
       <c r="AC2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="29:30" x14ac:dyDescent="0.25">
+      <c r="AE2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="29:31" x14ac:dyDescent="0.25">
       <c r="AC3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="29:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="29:31" x14ac:dyDescent="0.25">
       <c r="AC4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="29:31" x14ac:dyDescent="0.25">
+      <c r="AC6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="29:30" x14ac:dyDescent="0.25">
-      <c r="AC5" t="s">
+    <row r="7" spans="29:31" x14ac:dyDescent="0.25">
+      <c r="AC7" t="s">
         <v>5</v>
       </c>
-      <c r="AD5" t="s">
-        <v>13</v>
+      <c r="AD7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="29:31" x14ac:dyDescent="0.25">
+      <c r="AC13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="29:31" x14ac:dyDescent="0.25">
+      <c r="AC14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="29:31" x14ac:dyDescent="0.25">
+      <c r="AC15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="29:31" x14ac:dyDescent="0.25">
+      <c r="AC16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC31" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1476,10 +1639,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="M1:N12"/>
+  <dimension ref="M1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1489,74 +1652,72 @@
     <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="O2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M4" t="s">
         <v>9</v>
       </c>
       <c r="N4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="13:14" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="13:14" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="13:14" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="O7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M9" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="N9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="13:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" t="s">
         <v>16</v>
       </c>
-      <c r="N10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="13:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M12" t="s">
         <v>18</v>
-      </c>
-      <c r="N12" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1569,7 +1730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
@@ -1587,7 +1748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A22" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1619,14 +1780,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="Z2"/>
   <sheetViews>
-    <sheetView topLeftCell="A570" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Z56" sqref="Z56"/>
+    <sheetView topLeftCell="Y1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="Z2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/W&O POS_Hardcopy.xlsx
+++ b/W&O POS_Hardcopy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
   <si>
     <t>Table</t>
   </si>
@@ -142,6 +142,69 @@
   </si>
   <si>
     <t>FULL_NAME</t>
+  </si>
+  <si>
+    <t>MST_PRODUCTS</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>MST_CATEGORIES</t>
+  </si>
+  <si>
+    <t>CATEGORY_CD</t>
+  </si>
+  <si>
+    <t>CATEGORY_NM</t>
+  </si>
+  <si>
+    <t>PRODUCT_NAME</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>PRICE_TAKEOUT</t>
+  </si>
+  <si>
+    <t>Gía tiền mua mang về</t>
+  </si>
+  <si>
+    <t>Gía tiền ăn tại nhà hàng</t>
+  </si>
+  <si>
+    <t>PRICE_DELIVERY</t>
+  </si>
+  <si>
+    <t>Gía đi giao hàng cho khách</t>
+  </si>
+  <si>
+    <t>TAX</t>
+  </si>
+  <si>
+    <t>Thuế</t>
+  </si>
+  <si>
+    <t>TABLE_STATUS_PRODUCS</t>
+  </si>
+  <si>
+    <t>STATUS_PRODUCS_ID</t>
+  </si>
+  <si>
+    <t>PRODUCT_CD</t>
+  </si>
+  <si>
+    <t>DEL_FLG</t>
+  </si>
+  <si>
+    <t>DEL_REASON</t>
+  </si>
+  <si>
+    <t>Lý do hủy</t>
+  </si>
+  <si>
+    <t>Trạng thái nếu bị hủy, TRUE =&gt; Hủy, Default là FALSE</t>
   </si>
 </sst>
 </file>
@@ -1483,8 +1546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="AC1:AE31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC6" sqref="AC6:AD7"/>
+    <sheetView topLeftCell="R10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE19" sqref="AE19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1520,16 +1583,16 @@
         <v>40</v>
       </c>
     </row>
+    <row r="5" spans="29:31" x14ac:dyDescent="0.25">
+      <c r="AC5" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="6" spans="29:31" x14ac:dyDescent="0.25">
       <c r="AC6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="29:31" x14ac:dyDescent="0.25">
-      <c r="AC7" t="s">
         <v>5</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AD6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1639,10 +1702,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="M1:O11"/>
+  <dimension ref="M1:O18"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1720,6 +1783,45 @@
         <v>18</v>
       </c>
     </row>
+    <row r="13" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>56</v>
+      </c>
+      <c r="O14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>58</v>
+      </c>
+      <c r="O17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>59</v>
+      </c>
+      <c r="O18" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1730,7 +1832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
@@ -1748,7 +1850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1780,10 +1882,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="Z2"/>
+  <dimension ref="Z2:AN68"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView topLeftCell="AA57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AK64" sqref="AK64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1793,6 +1895,89 @@
         <v>39</v>
       </c>
     </row>
+    <row r="47" spans="37:38" x14ac:dyDescent="0.25">
+      <c r="AK47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="37:38" x14ac:dyDescent="0.25">
+      <c r="AK48" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="37:38" x14ac:dyDescent="0.25">
+      <c r="AK49" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="37:38" x14ac:dyDescent="0.25">
+      <c r="AK50" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="37:38" x14ac:dyDescent="0.25">
+      <c r="AK60" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="37:38" x14ac:dyDescent="0.25">
+      <c r="AK61" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL61" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="37:38" x14ac:dyDescent="0.25">
+      <c r="AK62" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" spans="37:38" x14ac:dyDescent="0.25">
+      <c r="AK63" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="37:38" x14ac:dyDescent="0.25">
+      <c r="AK64" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="37:40" x14ac:dyDescent="0.25">
+      <c r="AK65" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN65" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="37:40" x14ac:dyDescent="0.25">
+      <c r="AK66" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN66" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67" spans="37:40" x14ac:dyDescent="0.25">
+      <c r="AK67" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN67" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="37:40" x14ac:dyDescent="0.25">
+      <c r="AK68" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN68" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/W&O POS_Hardcopy.xlsx
+++ b/W&O POS_Hardcopy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="791" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="2" r:id="rId1"/>
@@ -1705,7 +1705,7 @@
   <dimension ref="M1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1884,7 +1884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="Z2:AN68"/>
   <sheetViews>
-    <sheetView topLeftCell="AA57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="AA54" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AK64" sqref="AK64"/>
     </sheetView>
   </sheetViews>

--- a/W&O POS_Hardcopy.xlsx
+++ b/W&O POS_Hardcopy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="791" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="791"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Report" sheetId="5" r:id="rId5"/>
     <sheet name="Setup" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1546,7 +1546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="AC1:AE31"/>
   <sheetViews>
-    <sheetView topLeftCell="R10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="R25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AE19" sqref="AE19"/>
     </sheetView>
   </sheetViews>
@@ -1704,8 +1704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="M1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView topLeftCell="B10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1832,7 +1832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>

--- a/W&O POS_Hardcopy.xlsx
+++ b/W&O POS_Hardcopy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="791"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="791" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
   <si>
     <t>Table</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>Trạng thái nếu bị hủy, TRUE =&gt; Hủy, Default là FALSE</t>
+  </si>
+  <si>
+    <t>DESC</t>
   </si>
 </sst>
 </file>
@@ -1544,10 +1547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="AC1:AE31"/>
+  <dimension ref="AC1:AE33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE19" sqref="AE19"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE30" sqref="AE30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1686,11 +1689,21 @@
     </row>
     <row r="30" spans="29:29" x14ac:dyDescent="0.25">
       <c r="AC30" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="29:29" x14ac:dyDescent="0.25">
       <c r="AC31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC33" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1704,8 +1717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="M1:O18"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1832,7 +1845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
@@ -1850,7 +1863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1884,8 +1897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="Z2:AN68"/>
   <sheetViews>
-    <sheetView topLeftCell="AA54" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AK64" sqref="AK64"/>
+    <sheetView topLeftCell="A78" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AL96" sqref="AL96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/W&O POS_Hardcopy.xlsx
+++ b/W&O POS_Hardcopy.xlsx
@@ -14,7 +14,7 @@
     <sheet name="Report" sheetId="5" r:id="rId5"/>
     <sheet name="Setup" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -57,9 +57,6 @@
     <t>User có đang được active không?</t>
   </si>
   <si>
-    <t>TABLE_STATUS</t>
-  </si>
-  <si>
     <t>STATUS_ID</t>
   </si>
   <si>
@@ -186,9 +183,6 @@
     <t>Thuế</t>
   </si>
   <si>
-    <t>TABLE_STATUS_PRODUCS</t>
-  </si>
-  <si>
     <t>STATUS_PRODUCS_ID</t>
   </si>
   <si>
@@ -208,12 +202,18 @@
   </si>
   <si>
     <t>DESC</t>
+  </si>
+  <si>
+    <t>ORDER</t>
+  </si>
+  <si>
+    <t>ORDER_DETAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1549,8 +1549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="AC1:AE33"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE30" sqref="AE30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC30" sqref="AC30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1573,7 +1573,7 @@
         <v>2</v>
       </c>
       <c r="AE2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="29:31" x14ac:dyDescent="0.25">
@@ -1583,7 +1583,7 @@
     </row>
     <row r="4" spans="29:31" x14ac:dyDescent="0.25">
       <c r="AC4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="29:31" x14ac:dyDescent="0.25">
@@ -1604,107 +1604,107 @@
         <v>0</v>
       </c>
       <c r="AD13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="29:31" x14ac:dyDescent="0.25">
       <c r="AC14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="29:31" x14ac:dyDescent="0.25">
       <c r="AC15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="29:31" x14ac:dyDescent="0.25">
       <c r="AC16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="29:29" x14ac:dyDescent="0.25">
       <c r="AC17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="29:29" x14ac:dyDescent="0.25">
       <c r="AC18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="29:29" x14ac:dyDescent="0.25">
       <c r="AC19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="29:29" x14ac:dyDescent="0.25">
       <c r="AC20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="29:29" x14ac:dyDescent="0.25">
       <c r="AC21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="29:29" x14ac:dyDescent="0.25">
       <c r="AC22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="29:29" x14ac:dyDescent="0.25">
       <c r="AC23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="29:29" x14ac:dyDescent="0.25">
       <c r="AC24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="29:29" x14ac:dyDescent="0.25">
       <c r="AC25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="29:29" x14ac:dyDescent="0.25">
       <c r="AC26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="29:29" x14ac:dyDescent="0.25">
       <c r="AC27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="29:29" x14ac:dyDescent="0.25">
       <c r="AC28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="29:29" x14ac:dyDescent="0.25">
       <c r="AC29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="29:29" x14ac:dyDescent="0.25">
       <c r="AC30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="29:29" x14ac:dyDescent="0.25">
       <c r="AC31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="29:29" x14ac:dyDescent="0.25">
       <c r="AC32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="29:29" x14ac:dyDescent="0.25">
       <c r="AC33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1717,8 +1717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="M1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17:P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1738,7 +1738,7 @@
         <v>7</v>
       </c>
       <c r="O2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="13:15" x14ac:dyDescent="0.25">
@@ -1756,15 +1756,15 @@
     </row>
     <row r="6" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M6" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="13:15" x14ac:dyDescent="0.25">
@@ -1774,65 +1774,65 @@
     </row>
     <row r="9" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M13" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1845,7 +1845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
@@ -1863,7 +1863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1897,7 +1897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="Z2:AN68"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="Q51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AL96" sqref="AL96"/>
     </sheetView>
   </sheetViews>
@@ -1905,90 +1905,90 @@
   <sheetData>
     <row r="2" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="37:38" x14ac:dyDescent="0.25">
       <c r="AK47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="37:38" x14ac:dyDescent="0.25">
       <c r="AK48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AL48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="37:38" x14ac:dyDescent="0.25">
       <c r="AK49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="37:38" x14ac:dyDescent="0.25">
       <c r="AK50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="37:38" x14ac:dyDescent="0.25">
       <c r="AK60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="37:38" x14ac:dyDescent="0.25">
       <c r="AK61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AL61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="37:38" x14ac:dyDescent="0.25">
       <c r="AK62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" spans="37:38" x14ac:dyDescent="0.25">
       <c r="AK63" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="37:38" x14ac:dyDescent="0.25">
       <c r="AK64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" spans="37:40" x14ac:dyDescent="0.25">
       <c r="AK65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AN65" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66" spans="37:40" x14ac:dyDescent="0.25">
       <c r="AK66" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN66" t="s">
         <v>48</v>
-      </c>
-      <c r="AN66" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="67" spans="37:40" x14ac:dyDescent="0.25">
       <c r="AK67" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN67" t="s">
         <v>51</v>
-      </c>
-      <c r="AN67" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="68" spans="37:40" x14ac:dyDescent="0.25">
       <c r="AK68" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN68" t="s">
         <v>53</v>
-      </c>
-      <c r="AN68" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
